--- a/Actividad 2/capturas_insectos_.xlsx
+++ b/Actividad 2/capturas_insectos_.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvalh\Desktop\UA\MatesUA\Prácticas de empresa\Actividad 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB52CB28-6135-4F35-BE6E-A1131FC14F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +110,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +162,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -182,6 +196,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -216,9 +231,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,14 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -420,7 +436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -431,7 +447,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -442,7 +458,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -453,7 +469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -464,7 +480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -475,7 +491,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -486,7 +502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -497,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -508,7 +524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -519,7 +535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -530,7 +546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -541,7 +557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -552,7 +568,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -563,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -574,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -585,7 +601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -596,7 +612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -607,7 +623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -618,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -629,7 +645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -640,7 +656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -651,7 +667,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -662,7 +678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -673,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -684,7 +700,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -695,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -706,7 +722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -717,7 +733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -728,7 +744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -739,7 +755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -750,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -761,7 +777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -772,7 +788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -783,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -794,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -805,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -816,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -827,7 +843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -838,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>6</v>
       </c>
